--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
@@ -8633,6 +8633,9 @@
       <c r="W86">
         <v>9.233333333333334</v>
       </c>
+      <c r="X86">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z86">
         <v>10.80666666666667</v>
       </c>
@@ -8725,6 +8728,9 @@
       <c r="W87">
         <v>9.233333333333334</v>
       </c>
+      <c r="X87">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z87">
         <v>10.80666666666667</v>
       </c>
@@ -8817,6 +8823,9 @@
       <c r="W88">
         <v>9.233333333333334</v>
       </c>
+      <c r="X88">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z88">
         <v>10.80666666666667</v>
       </c>
@@ -8909,6 +8918,9 @@
       <c r="W89">
         <v>9.233333333333334</v>
       </c>
+      <c r="X89">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z89">
         <v>10.80666666666667</v>
       </c>
@@ -9001,6 +9013,9 @@
       <c r="W90">
         <v>9.233333333333334</v>
       </c>
+      <c r="X90">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z90">
         <v>10.80666666666667</v>
       </c>
@@ -9093,6 +9108,9 @@
       <c r="W91">
         <v>9.233333333333334</v>
       </c>
+      <c r="X91">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z91">
         <v>10.80666666666667</v>
       </c>
@@ -9185,6 +9203,9 @@
       <c r="W92">
         <v>9.233333333333334</v>
       </c>
+      <c r="X92">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z92">
         <v>10.80666666666667</v>
       </c>
@@ -9277,6 +9298,9 @@
       <c r="W93">
         <v>9.233333333333334</v>
       </c>
+      <c r="X93">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z93">
         <v>10.80666666666667</v>
       </c>
@@ -9369,6 +9393,9 @@
       <c r="W94">
         <v>9.233333333333334</v>
       </c>
+      <c r="X94">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z94">
         <v>10.80666666666667</v>
       </c>
@@ -9461,6 +9488,9 @@
       <c r="W95">
         <v>9.233333333333334</v>
       </c>
+      <c r="X95">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z95">
         <v>10.80666666666667</v>
       </c>
@@ -9553,6 +9583,9 @@
       <c r="W96">
         <v>9.233333333333334</v>
       </c>
+      <c r="X96">
+        <v>418.3333333333333</v>
+      </c>
       <c r="Z96">
         <v>10.80666666666667</v>
       </c>
@@ -9644,6 +9677,9 @@
       </c>
       <c r="W97">
         <v>9.233333333333334</v>
+      </c>
+      <c r="X97">
+        <v>418.3333333333333</v>
       </c>
       <c r="Z97">
         <v>10.80666666666667</v>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ301"/>
+  <dimension ref="A1:BE301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,31 @@
           <t>k_index</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>clog_3_class_int</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>clog_6_class_int</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>sub_type_int</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>hydr_type_int</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>hydr_int</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -786,6 +811,21 @@
       <c r="AZ2">
         <v>0.5539214466099297</v>
       </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>2</v>
+      </c>
+      <c r="BD2">
+        <v>2</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -954,6 +994,21 @@
       <c r="AZ3">
         <v>0.5414305971712106</v>
       </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1122,6 +1177,21 @@
       <c r="AZ4">
         <v>0.5363212690597532</v>
       </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>2</v>
+      </c>
+      <c r="BD4">
+        <v>2</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1290,6 +1360,21 @@
       <c r="AZ5">
         <v>0.4786614221476723</v>
       </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>2</v>
+      </c>
+      <c r="BD5">
+        <v>2</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1458,6 +1543,21 @@
       <c r="AZ6">
         <v>0.6509072139679546</v>
       </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <v>2</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1626,6 +1726,21 @@
       <c r="AZ7">
         <v>0.6265846699887423</v>
       </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BD7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1794,6 +1909,21 @@
       <c r="AZ8">
         <v>0.648390196085092</v>
       </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>2</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1962,6 +2092,21 @@
       <c r="AZ9">
         <v>0.6752972024115527</v>
       </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>2</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2130,6 +2275,21 @@
       <c r="AZ10">
         <v>0.7011637845781656</v>
       </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>2</v>
+      </c>
+      <c r="BD10">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2298,6 +2458,21 @@
       <c r="AZ11">
         <v>0.6914539399512194</v>
       </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2466,6 +2641,21 @@
       <c r="AZ12">
         <v>0.6320869430041537</v>
       </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>2</v>
+      </c>
+      <c r="BD12">
+        <v>2</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2634,6 +2824,21 @@
       <c r="AZ13">
         <v>0.6419181647041091</v>
       </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>2</v>
+      </c>
+      <c r="BD13">
+        <v>2</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -2797,6 +3002,18 @@
       <c r="AZ14">
         <v>0.6870537161706491</v>
       </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -2960,6 +3177,18 @@
       <c r="AZ15">
         <v>0.7098525006350846</v>
       </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>3</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -3123,6 +3352,18 @@
       <c r="AZ16">
         <v>0.6716394834082039</v>
       </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>2</v>
+      </c>
+      <c r="BE16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -3286,6 +3527,18 @@
       <c r="AZ17">
         <v>0.6037085940843107</v>
       </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>2</v>
+      </c>
+      <c r="BE17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -3449,6 +3702,18 @@
       <c r="AZ18">
         <v>0.5167700173621047</v>
       </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -3612,6 +3877,18 @@
       <c r="AZ19">
         <v>0.6537330132922942</v>
       </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -3775,6 +4052,18 @@
       <c r="AZ20">
         <v>0.6005025340343552</v>
       </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>2</v>
+      </c>
+      <c r="BE20">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -3938,6 +4227,18 @@
       <c r="AZ21">
         <v>0.6938334145214491</v>
       </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>3</v>
+      </c>
+      <c r="BE21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -4101,6 +4402,18 @@
       <c r="AZ22">
         <v>0.5767184758576877</v>
       </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>3</v>
+      </c>
+      <c r="BE22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -4264,6 +4577,18 @@
       <c r="AZ23">
         <v>0.5617227774881161</v>
       </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
@@ -4427,6 +4752,18 @@
       <c r="AZ24">
         <v>0.5722798093493313</v>
       </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>2</v>
+      </c>
+      <c r="BE24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -4590,6 +4927,18 @@
       <c r="AZ25">
         <v>0.6384051349627995</v>
       </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BE25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4758,6 +5107,21 @@
       <c r="AZ26">
         <v>0.5557772615819265</v>
       </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>2</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4926,6 +5290,21 @@
       <c r="AZ27">
         <v>0.4831287488998558</v>
       </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
+        <v>2</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5094,6 +5473,21 @@
       <c r="AZ28">
         <v>0.5582192167175037</v>
       </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>2</v>
+      </c>
+      <c r="BD28">
+        <v>2</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5262,6 +5656,21 @@
       <c r="AZ29">
         <v>0.5918538642270078</v>
       </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>2</v>
+      </c>
+      <c r="BD29">
+        <v>2</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5430,6 +5839,21 @@
       <c r="AZ30">
         <v>0.6401515129377779</v>
       </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>2</v>
+      </c>
+      <c r="BD30">
+        <v>2</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5598,6 +6022,21 @@
       <c r="AZ31">
         <v>0.5566976134324827</v>
       </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BD31">
+        <v>2</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5766,6 +6205,21 @@
       <c r="AZ32">
         <v>0.6126154364937393</v>
       </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>1</v>
+      </c>
+      <c r="BD32">
+        <v>2</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5934,6 +6388,21 @@
       <c r="AZ33">
         <v>0.5992844849797576</v>
       </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>3</v>
+      </c>
+      <c r="BD33">
+        <v>2</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6102,6 +6571,21 @@
       <c r="AZ34">
         <v>0.4281758227829867</v>
       </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>2</v>
+      </c>
+      <c r="BD34">
+        <v>2</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6270,6 +6754,21 @@
       <c r="AZ35">
         <v>0.5844605684923411</v>
       </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>1</v>
+      </c>
+      <c r="BD35">
+        <v>2</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6438,6 +6937,21 @@
       <c r="AZ36">
         <v>0.5411024307737783</v>
       </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>2</v>
+      </c>
+      <c r="BD36">
+        <v>2</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6606,6 +7120,21 @@
       <c r="AZ37">
         <v>0.5717613115560038</v>
       </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>2</v>
+      </c>
+      <c r="BD37">
+        <v>2</v>
+      </c>
+      <c r="BE37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6774,6 +7303,21 @@
       <c r="AZ38">
         <v>0.6333990459990494</v>
       </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>2</v>
+      </c>
+      <c r="BD38">
+        <v>2</v>
+      </c>
+      <c r="BE38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6942,6 +7486,21 @@
       <c r="AZ39">
         <v>0.4864593844263738</v>
       </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>2</v>
+      </c>
+      <c r="BD39">
+        <v>2</v>
+      </c>
+      <c r="BE39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7110,6 +7669,21 @@
       <c r="AZ40">
         <v>0.3992219033291406</v>
       </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>2</v>
+      </c>
+      <c r="BD40">
+        <v>2</v>
+      </c>
+      <c r="BE40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7278,6 +7852,21 @@
       <c r="AZ41">
         <v>0.6361973726589679</v>
       </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>2</v>
+      </c>
+      <c r="BD41">
+        <v>2</v>
+      </c>
+      <c r="BE41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7446,6 +8035,21 @@
       <c r="AZ42">
         <v>0.4580682949316448</v>
       </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>2</v>
+      </c>
+      <c r="BD42">
+        <v>2</v>
+      </c>
+      <c r="BE42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7614,6 +8218,21 @@
       <c r="AZ43">
         <v>0.3904180183514258</v>
       </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>2</v>
+      </c>
+      <c r="BD43">
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7782,6 +8401,21 @@
       <c r="AZ44">
         <v>0.6182434591302841</v>
       </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>2</v>
+      </c>
+      <c r="BD44">
+        <v>2</v>
+      </c>
+      <c r="BE44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7950,6 +8584,21 @@
       <c r="AZ45">
         <v>0.3730567909154147</v>
       </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>2</v>
+      </c>
+      <c r="BD45">
+        <v>2</v>
+      </c>
+      <c r="BE45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8118,6 +8767,21 @@
       <c r="AZ46">
         <v>0.4343468577396056</v>
       </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>2</v>
+      </c>
+      <c r="BD46">
+        <v>2</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8286,6 +8950,21 @@
       <c r="AZ47">
         <v>0.5361611704817053</v>
       </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>2</v>
+      </c>
+      <c r="BD47">
+        <v>2</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8454,6 +9133,21 @@
       <c r="AZ48">
         <v>0.4226615795538363</v>
       </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>2</v>
+      </c>
+      <c r="BD48">
+        <v>2</v>
+      </c>
+      <c r="BE48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8622,6 +9316,21 @@
       <c r="AZ49">
         <v>0.4310362957673231</v>
       </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>2</v>
+      </c>
+      <c r="BD49">
+        <v>2</v>
+      </c>
+      <c r="BE49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8799,6 +9508,21 @@
       <c r="AZ50">
         <v>0.5883933839314587</v>
       </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>2</v>
+      </c>
+      <c r="BD50">
+        <v>1</v>
+      </c>
+      <c r="BE50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8976,6 +9700,21 @@
       <c r="AZ51">
         <v>0.4179756986627131</v>
       </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>1</v>
+      </c>
+      <c r="BE51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9153,6 +9892,21 @@
       <c r="AZ52">
         <v>0.3567262963833185</v>
       </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>3</v>
+      </c>
+      <c r="BD52">
+        <v>1</v>
+      </c>
+      <c r="BE52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9330,6 +10084,21 @@
       <c r="AZ53">
         <v>0.5697607165065611</v>
       </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>2</v>
+      </c>
+      <c r="BD53">
+        <v>1</v>
+      </c>
+      <c r="BE53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9507,6 +10276,21 @@
       <c r="AZ54">
         <v>0.4089180641891749</v>
       </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>2</v>
+      </c>
+      <c r="BD54">
+        <v>1</v>
+      </c>
+      <c r="BE54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9684,6 +10468,21 @@
       <c r="AZ55">
         <v>0.3937068420468916</v>
       </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>2</v>
+      </c>
+      <c r="BD55">
+        <v>1</v>
+      </c>
+      <c r="BE55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9861,6 +10660,21 @@
       <c r="AZ56">
         <v>0.4890526019676808</v>
       </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>2</v>
+      </c>
+      <c r="BD56">
+        <v>1</v>
+      </c>
+      <c r="BE56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10038,6 +10852,21 @@
       <c r="AZ57">
         <v>0.5917257599365187</v>
       </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>2</v>
+      </c>
+      <c r="BD57">
+        <v>1</v>
+      </c>
+      <c r="BE57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10215,6 +11044,21 @@
       <c r="AZ58">
         <v>0.2847665431079534</v>
       </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>2</v>
+      </c>
+      <c r="BD58">
+        <v>1</v>
+      </c>
+      <c r="BE58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10392,6 +11236,21 @@
       <c r="AZ59">
         <v>0.4274877917197371</v>
       </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+      <c r="BD59">
+        <v>1</v>
+      </c>
+      <c r="BE59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10569,6 +11428,21 @@
       <c r="AZ60">
         <v>0.4076643476753347</v>
       </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>2</v>
+      </c>
+      <c r="BD60">
+        <v>1</v>
+      </c>
+      <c r="BE60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10746,6 +11620,21 @@
       <c r="AZ61">
         <v>0.382194684477846</v>
       </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>2</v>
+      </c>
+      <c r="BD61">
+        <v>1</v>
+      </c>
+      <c r="BE61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10923,6 +11812,21 @@
       <c r="AZ62">
         <v>0.5142650442850889</v>
       </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>2</v>
+      </c>
+      <c r="BD62">
+        <v>1</v>
+      </c>
+      <c r="BE62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11100,6 +12004,21 @@
       <c r="AZ63">
         <v>0.5291423697813851</v>
       </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>2</v>
+      </c>
+      <c r="BD63">
+        <v>1</v>
+      </c>
+      <c r="BE63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11277,6 +12196,21 @@
       <c r="AZ64">
         <v>0.3828646316426652</v>
       </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>2</v>
+      </c>
+      <c r="BD64">
+        <v>1</v>
+      </c>
+      <c r="BE64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11454,6 +12388,21 @@
       <c r="AZ65">
         <v>0.442801157845308</v>
       </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>2</v>
+      </c>
+      <c r="BD65">
+        <v>1</v>
+      </c>
+      <c r="BE65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11631,6 +12580,21 @@
       <c r="AZ66">
         <v>0.4070899450335168</v>
       </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>2</v>
+      </c>
+      <c r="BD66">
+        <v>1</v>
+      </c>
+      <c r="BE66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11808,6 +12772,21 @@
       <c r="AZ67">
         <v>0.3728941829442116</v>
       </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>2</v>
+      </c>
+      <c r="BD67">
+        <v>1</v>
+      </c>
+      <c r="BE67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11985,6 +12964,21 @@
       <c r="AZ68">
         <v>0.6984497460941174</v>
       </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>2</v>
+      </c>
+      <c r="BD68">
+        <v>1</v>
+      </c>
+      <c r="BE68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12162,6 +13156,21 @@
       <c r="AZ69">
         <v>0.502571771178997</v>
       </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>2</v>
+      </c>
+      <c r="BD69">
+        <v>1</v>
+      </c>
+      <c r="BE69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12339,6 +13348,21 @@
       <c r="AZ70">
         <v>0.408988607690199</v>
       </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>2</v>
+      </c>
+      <c r="BD70">
+        <v>1</v>
+      </c>
+      <c r="BE70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12516,6 +13540,21 @@
       <c r="AZ71">
         <v>0.6413258786253547</v>
       </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>2</v>
+      </c>
+      <c r="BD71">
+        <v>1</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12693,6 +13732,21 @@
       <c r="AZ72">
         <v>0.517099544539097</v>
       </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>2</v>
+      </c>
+      <c r="BD72">
+        <v>1</v>
+      </c>
+      <c r="BE72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12870,6 +13924,21 @@
       <c r="AZ73">
         <v>0.43018213052507</v>
       </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>2</v>
+      </c>
+      <c r="BD73">
+        <v>1</v>
+      </c>
+      <c r="BE73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13038,6 +14107,21 @@
       <c r="AZ74">
         <v>0.5198302737982534</v>
       </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>1</v>
+      </c>
+      <c r="BD74">
+        <v>2</v>
+      </c>
+      <c r="BE74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13206,6 +14290,21 @@
       <c r="AZ75">
         <v>0.4417148970799078</v>
       </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>2</v>
+      </c>
+      <c r="BE75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13374,6 +14473,21 @@
       <c r="AZ76">
         <v>0.5013087762650751</v>
       </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>2</v>
+      </c>
+      <c r="BD76">
+        <v>2</v>
+      </c>
+      <c r="BE76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13542,6 +14656,21 @@
       <c r="AZ77">
         <v>0.7848121651765076</v>
       </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>2</v>
+      </c>
+      <c r="BE77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13710,6 +14839,21 @@
       <c r="AZ78">
         <v>0.5263748660143458</v>
       </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>2</v>
+      </c>
+      <c r="BD78">
+        <v>2</v>
+      </c>
+      <c r="BE78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13878,6 +15022,21 @@
       <c r="AZ79">
         <v>0.5712096215894972</v>
       </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>2</v>
+      </c>
+      <c r="BD79">
+        <v>2</v>
+      </c>
+      <c r="BE79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14046,6 +15205,21 @@
       <c r="AZ80">
         <v>0.719531130945533</v>
       </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>2</v>
+      </c>
+      <c r="BD80">
+        <v>2</v>
+      </c>
+      <c r="BE80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14214,6 +15388,21 @@
       <c r="AZ81">
         <v>0.7424759273717116</v>
       </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>2</v>
+      </c>
+      <c r="BD81">
+        <v>2</v>
+      </c>
+      <c r="BE81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14382,6 +15571,21 @@
       <c r="AZ82">
         <v>0.6881590274005746</v>
       </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14550,6 +15754,21 @@
       <c r="AZ83">
         <v>0.653534429309327</v>
       </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>2</v>
+      </c>
+      <c r="BE83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14718,6 +15937,21 @@
       <c r="AZ84">
         <v>0.6366414343754307</v>
       </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>2</v>
+      </c>
+      <c r="BD84">
+        <v>2</v>
+      </c>
+      <c r="BE84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14886,6 +16120,21 @@
       <c r="AZ85">
         <v>0.7031026260074139</v>
       </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>2</v>
+      </c>
+      <c r="BD85">
+        <v>2</v>
+      </c>
+      <c r="BE85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15054,6 +16303,21 @@
       <c r="AZ86">
         <v>0.6027442716128505</v>
       </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>1</v>
+      </c>
+      <c r="BD86">
+        <v>2</v>
+      </c>
+      <c r="BE86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15222,6 +16486,21 @@
       <c r="AZ87">
         <v>0.7131028791814813</v>
       </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>1</v>
+      </c>
+      <c r="BD87">
+        <v>2</v>
+      </c>
+      <c r="BE87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15390,6 +16669,21 @@
       <c r="AZ88">
         <v>0.596666170836707</v>
       </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>2</v>
+      </c>
+      <c r="BD88">
+        <v>2</v>
+      </c>
+      <c r="BE88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15558,6 +16852,21 @@
       <c r="AZ89">
         <v>0.4963794532698622</v>
       </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>2</v>
+      </c>
+      <c r="BD89">
+        <v>2</v>
+      </c>
+      <c r="BE89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15726,6 +17035,21 @@
       <c r="AZ90">
         <v>0.5563195847309085</v>
       </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>2</v>
+      </c>
+      <c r="BD90">
+        <v>2</v>
+      </c>
+      <c r="BE90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15894,6 +17218,21 @@
       <c r="AZ91">
         <v>0.6911016036620283</v>
       </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>3</v>
+      </c>
+      <c r="BD91">
+        <v>2</v>
+      </c>
+      <c r="BE91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -16062,6 +17401,21 @@
       <c r="AZ92">
         <v>0.8131179808066756</v>
       </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>2</v>
+      </c>
+      <c r="BD92">
+        <v>2</v>
+      </c>
+      <c r="BE92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16230,6 +17584,21 @@
       <c r="AZ93">
         <v>0.7670166432783699</v>
       </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>2</v>
+      </c>
+      <c r="BD93">
+        <v>2</v>
+      </c>
+      <c r="BE93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -16398,6 +17767,21 @@
       <c r="AZ94">
         <v>0.5880396530065258</v>
       </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>2</v>
+      </c>
+      <c r="BD94">
+        <v>2</v>
+      </c>
+      <c r="BE94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16566,6 +17950,21 @@
       <c r="AZ95">
         <v>0.7272977421254189</v>
       </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>2</v>
+      </c>
+      <c r="BD95">
+        <v>2</v>
+      </c>
+      <c r="BE95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16734,6 +18133,21 @@
       <c r="AZ96">
         <v>0.6431731013937169</v>
       </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>2</v>
+      </c>
+      <c r="BD96">
+        <v>2</v>
+      </c>
+      <c r="BE96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16902,6 +18316,21 @@
       <c r="AZ97">
         <v>0.5920274837300732</v>
       </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>2</v>
+      </c>
+      <c r="BD97">
+        <v>2</v>
+      </c>
+      <c r="BE97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
@@ -17065,6 +18494,18 @@
       <c r="AZ98">
         <v>0.6048314248593835</v>
       </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>1</v>
+      </c>
+      <c r="BE98">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
@@ -17228,6 +18669,18 @@
       <c r="AZ99">
         <v>0.6352049336033192</v>
       </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>2</v>
+      </c>
+      <c r="BE99">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
@@ -17391,6 +18844,18 @@
       <c r="AZ100">
         <v>0.683778972187477</v>
       </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>2</v>
+      </c>
+      <c r="BE100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
@@ -17554,6 +19019,18 @@
       <c r="AZ101">
         <v>0.5587875396822665</v>
       </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>2</v>
+      </c>
+      <c r="BE101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
@@ -17717,6 +19194,18 @@
       <c r="AZ102">
         <v>0.5692571275785997</v>
       </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
@@ -17880,6 +19369,18 @@
       <c r="AZ103">
         <v>0.5765887572972809</v>
       </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>2</v>
+      </c>
+      <c r="BE103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
@@ -18043,6 +19544,18 @@
       <c r="AZ104">
         <v>0.6746856082527718</v>
       </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>2</v>
+      </c>
+      <c r="BE104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
@@ -18206,6 +19719,18 @@
       <c r="AZ105">
         <v>0.8091198187386636</v>
       </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>2</v>
+      </c>
+      <c r="BE105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
@@ -18369,6 +19894,18 @@
       <c r="AZ106">
         <v>0.8510461777563538</v>
       </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>2</v>
+      </c>
+      <c r="BE106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
@@ -18532,6 +20069,18 @@
       <c r="AZ107">
         <v>0.7169443238908174</v>
       </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>2</v>
+      </c>
+      <c r="BE107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
@@ -18695,6 +20244,18 @@
       <c r="AZ108">
         <v>0.8664000731606638</v>
       </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>2</v>
+      </c>
+      <c r="BE108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
@@ -18858,6 +20419,18 @@
       <c r="AZ109">
         <v>0.7562074376110842</v>
       </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>2</v>
+      </c>
+      <c r="BE109">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -19035,6 +20608,21 @@
       <c r="AZ110">
         <v>0.6652181397286516</v>
       </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>2</v>
+      </c>
+      <c r="BD110">
+        <v>2</v>
+      </c>
+      <c r="BE110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -19212,6 +20800,21 @@
       <c r="AZ111">
         <v>0.4517482206138081</v>
       </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>2</v>
+      </c>
+      <c r="BD111">
+        <v>2</v>
+      </c>
+      <c r="BE111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -19389,6 +20992,21 @@
       <c r="AZ112">
         <v>0.546492600075656</v>
       </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>2</v>
+      </c>
+      <c r="BD112">
+        <v>2</v>
+      </c>
+      <c r="BE112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -19566,6 +21184,21 @@
       <c r="AZ113">
         <v>0.5625561728127837</v>
       </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>2</v>
+      </c>
+      <c r="BD113">
+        <v>2</v>
+      </c>
+      <c r="BE113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -19743,6 +21376,21 @@
       <c r="AZ114">
         <v>0.549090262480761</v>
       </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>2</v>
+      </c>
+      <c r="BD114">
+        <v>2</v>
+      </c>
+      <c r="BE114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -19920,6 +21568,21 @@
       <c r="AZ115">
         <v>0.6909410686650653</v>
       </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>2</v>
+      </c>
+      <c r="BD115">
+        <v>2</v>
+      </c>
+      <c r="BE115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -20097,6 +21760,21 @@
       <c r="AZ116">
         <v>0.5634766935554414</v>
       </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>2</v>
+      </c>
+      <c r="BD116">
+        <v>2</v>
+      </c>
+      <c r="BE116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -20274,6 +21952,21 @@
       <c r="AZ117">
         <v>0.604301652971176</v>
       </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>2</v>
+      </c>
+      <c r="BD117">
+        <v>2</v>
+      </c>
+      <c r="BE117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -20451,6 +22144,21 @@
       <c r="AZ118">
         <v>0.6952491813936286</v>
       </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>2</v>
+      </c>
+      <c r="BD118">
+        <v>2</v>
+      </c>
+      <c r="BE118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -20628,6 +22336,21 @@
       <c r="AZ119">
         <v>0.52677051698689</v>
       </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>2</v>
+      </c>
+      <c r="BD119">
+        <v>2</v>
+      </c>
+      <c r="BE119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -20805,6 +22528,21 @@
       <c r="AZ120">
         <v>0.6839014027881554</v>
       </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>2</v>
+      </c>
+      <c r="BD120">
+        <v>2</v>
+      </c>
+      <c r="BE120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -20982,6 +22720,21 @@
       <c r="AZ121">
         <v>0.6446613093014665</v>
       </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>2</v>
+      </c>
+      <c r="BD121">
+        <v>2</v>
+      </c>
+      <c r="BE121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -21150,6 +22903,21 @@
       <c r="AZ122">
         <v>0.5480059313089548</v>
       </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>2</v>
+      </c>
+      <c r="BD122">
+        <v>1</v>
+      </c>
+      <c r="BE122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -21318,6 +23086,21 @@
       <c r="AZ123">
         <v>0.5588149509105503</v>
       </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>2</v>
+      </c>
+      <c r="BD123">
+        <v>1</v>
+      </c>
+      <c r="BE123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -21486,6 +23269,21 @@
       <c r="AZ124">
         <v>0.6872196314591057</v>
       </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>2</v>
+      </c>
+      <c r="BD124">
+        <v>1</v>
+      </c>
+      <c r="BE124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21654,6 +23452,21 @@
       <c r="AZ125">
         <v>0.4643451432718299</v>
       </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>2</v>
+      </c>
+      <c r="BD125">
+        <v>1</v>
+      </c>
+      <c r="BE125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -21822,6 +23635,21 @@
       <c r="AZ126">
         <v>0.5245892627152305</v>
       </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>2</v>
+      </c>
+      <c r="BD126">
+        <v>1</v>
+      </c>
+      <c r="BE126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -21990,6 +23818,21 @@
       <c r="AZ127">
         <v>0.6015300705701657</v>
       </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>2</v>
+      </c>
+      <c r="BD127">
+        <v>1</v>
+      </c>
+      <c r="BE127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -22158,6 +24001,21 @@
       <c r="AZ128">
         <v>0.5232748712413097</v>
       </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>2</v>
+      </c>
+      <c r="BD128">
+        <v>1</v>
+      </c>
+      <c r="BE128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -22326,6 +24184,21 @@
       <c r="AZ129">
         <v>0.7791163044454137</v>
       </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>2</v>
+      </c>
+      <c r="BD129">
+        <v>1</v>
+      </c>
+      <c r="BE129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -22494,6 +24367,21 @@
       <c r="AZ130">
         <v>0.4716793640642491</v>
       </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>2</v>
+      </c>
+      <c r="BD130">
+        <v>1</v>
+      </c>
+      <c r="BE130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -22662,6 +24550,21 @@
       <c r="AZ131">
         <v>0.7170958174416275</v>
       </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>2</v>
+      </c>
+      <c r="BD131">
+        <v>1</v>
+      </c>
+      <c r="BE131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -22830,6 +24733,21 @@
       <c r="AZ132">
         <v>0.763534337487258</v>
       </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>2</v>
+      </c>
+      <c r="BD132">
+        <v>1</v>
+      </c>
+      <c r="BE132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -22998,6 +24916,21 @@
       <c r="AZ133">
         <v>0.6494157259426822</v>
       </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>2</v>
+      </c>
+      <c r="BD133">
+        <v>1</v>
+      </c>
+      <c r="BE133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -23161,6 +25094,18 @@
       <c r="AZ134">
         <v>0.4429265688226399</v>
       </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>2</v>
+      </c>
+      <c r="BE134">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
@@ -23324,6 +25269,18 @@
       <c r="AZ135">
         <v>0.5174552868209843</v>
       </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>2</v>
+      </c>
+      <c r="BE135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
@@ -23487,6 +25444,18 @@
       <c r="AZ136">
         <v>0.6401672637530639</v>
       </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>1</v>
+      </c>
+      <c r="BE136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
@@ -23650,6 +25619,18 @@
       <c r="AZ137">
         <v>0.5294427754048412</v>
       </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>2</v>
+      </c>
+      <c r="BE137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
@@ -23813,6 +25794,18 @@
       <c r="AZ138">
         <v>0.6287445425242574</v>
       </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>2</v>
+      </c>
+      <c r="BE138">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -23976,6 +25969,18 @@
       <c r="AZ139">
         <v>0.6121514998921647</v>
       </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>2</v>
+      </c>
+      <c r="BE139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
@@ -24139,6 +26144,18 @@
       <c r="AZ140">
         <v>0.6789913382450731</v>
       </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>2</v>
+      </c>
+      <c r="BE140">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
@@ -24302,6 +26319,18 @@
       <c r="AZ141">
         <v>0.7537384146413441</v>
       </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>3</v>
+      </c>
+      <c r="BE141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
@@ -24465,6 +26494,18 @@
       <c r="AZ142">
         <v>0.6504931263467418</v>
       </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>2</v>
+      </c>
+      <c r="BE142">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
@@ -24628,6 +26669,18 @@
       <c r="AZ143">
         <v>0.3275999390580689</v>
       </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>2</v>
+      </c>
+      <c r="BE143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
@@ -24791,6 +26844,18 @@
       <c r="AZ144">
         <v>0.5468166375780561</v>
       </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>2</v>
+      </c>
+      <c r="BE144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
@@ -24954,6 +27019,18 @@
       <c r="AZ145">
         <v>0.7570334303398301</v>
       </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>2</v>
+      </c>
+      <c r="BE145">
+        <v>2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -25122,6 +27199,21 @@
       <c r="AZ146">
         <v>0.564646885090533</v>
       </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>2</v>
+      </c>
+      <c r="BD146">
+        <v>1</v>
+      </c>
+      <c r="BE146">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -25290,6 +27382,21 @@
       <c r="AZ147">
         <v>0.6423762555131721</v>
       </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>2</v>
+      </c>
+      <c r="BD147">
+        <v>1</v>
+      </c>
+      <c r="BE147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -25458,6 +27565,21 @@
       <c r="AZ148">
         <v>0.6353330826509614</v>
       </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>2</v>
+      </c>
+      <c r="BD148">
+        <v>1</v>
+      </c>
+      <c r="BE148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -25626,6 +27748,21 @@
       <c r="AZ149">
         <v>0.5734484010994917</v>
       </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>2</v>
+      </c>
+      <c r="BD149">
+        <v>1</v>
+      </c>
+      <c r="BE149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -25794,6 +27931,21 @@
       <c r="AZ150">
         <v>0.741709015642726</v>
       </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>2</v>
+      </c>
+      <c r="BD150">
+        <v>1</v>
+      </c>
+      <c r="BE150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -25962,6 +28114,21 @@
       <c r="AZ151">
         <v>0.5129672487508805</v>
       </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>2</v>
+      </c>
+      <c r="BD151">
+        <v>1</v>
+      </c>
+      <c r="BE151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -26130,6 +28297,21 @@
       <c r="AZ152">
         <v>0.5664957681429253</v>
       </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>2</v>
+      </c>
+      <c r="BD152">
+        <v>1</v>
+      </c>
+      <c r="BE152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -26298,6 +28480,21 @@
       <c r="AZ153">
         <v>0.7244483702959682</v>
       </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>2</v>
+      </c>
+      <c r="BD153">
+        <v>1</v>
+      </c>
+      <c r="BE153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -26466,6 +28663,21 @@
       <c r="AZ154">
         <v>0.6680064174477868</v>
       </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>2</v>
+      </c>
+      <c r="BD154">
+        <v>1</v>
+      </c>
+      <c r="BE154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -26634,6 +28846,21 @@
       <c r="AZ155">
         <v>0.5948977668430216</v>
       </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>2</v>
+      </c>
+      <c r="BD155">
+        <v>1</v>
+      </c>
+      <c r="BE155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -26802,6 +29029,21 @@
       <c r="AZ156">
         <v>0.5456270494688947</v>
       </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>2</v>
+      </c>
+      <c r="BD156">
+        <v>1</v>
+      </c>
+      <c r="BE156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -26970,6 +29212,21 @@
       <c r="AZ157">
         <v>0.7466019060276045</v>
       </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>2</v>
+      </c>
+      <c r="BD157">
+        <v>1</v>
+      </c>
+      <c r="BE157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -27138,6 +29395,21 @@
       <c r="AZ158">
         <v>0.4050931256251792</v>
       </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>2</v>
+      </c>
+      <c r="BD158">
+        <v>1</v>
+      </c>
+      <c r="BE158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -27306,6 +29578,21 @@
       <c r="AZ159">
         <v>0.3991768833085542</v>
       </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>2</v>
+      </c>
+      <c r="BD159">
+        <v>1</v>
+      </c>
+      <c r="BE159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -27474,6 +29761,21 @@
       <c r="AZ160">
         <v>0.3740446133978149</v>
       </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>2</v>
+      </c>
+      <c r="BD160">
+        <v>1</v>
+      </c>
+      <c r="BE160">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -27642,6 +29944,21 @@
       <c r="AZ161">
         <v>0.5525878660053343</v>
       </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>2</v>
+      </c>
+      <c r="BD161">
+        <v>1</v>
+      </c>
+      <c r="BE161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -27810,6 +30127,21 @@
       <c r="AZ162">
         <v>0.3266095810129206</v>
       </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>2</v>
+      </c>
+      <c r="BD162">
+        <v>1</v>
+      </c>
+      <c r="BE162">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -27978,6 +30310,21 @@
       <c r="AZ163">
         <v>0.4250440569079225</v>
       </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>2</v>
+      </c>
+      <c r="BD163">
+        <v>1</v>
+      </c>
+      <c r="BE163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -28146,6 +30493,21 @@
       <c r="AZ164">
         <v>0.5129620955586278</v>
       </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>2</v>
+      </c>
+      <c r="BD164">
+        <v>1</v>
+      </c>
+      <c r="BE164">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -28314,6 +30676,21 @@
       <c r="AZ165">
         <v>0.3544782499592989</v>
       </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>2</v>
+      </c>
+      <c r="BD165">
+        <v>1</v>
+      </c>
+      <c r="BE165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -28482,6 +30859,21 @@
       <c r="AZ166">
         <v>0.5051933749460048</v>
       </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>2</v>
+      </c>
+      <c r="BD166">
+        <v>1</v>
+      </c>
+      <c r="BE166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -28650,6 +31042,21 @@
       <c r="AZ167">
         <v>0.8996661396168234</v>
       </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>2</v>
+      </c>
+      <c r="BD167">
+        <v>1</v>
+      </c>
+      <c r="BE167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -28818,6 +31225,21 @@
       <c r="AZ168">
         <v>0.4374951281541186</v>
       </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>2</v>
+      </c>
+      <c r="BD168">
+        <v>1</v>
+      </c>
+      <c r="BE168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -28986,6 +31408,21 @@
       <c r="AZ169">
         <v>0.3863674252375241</v>
       </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>2</v>
+      </c>
+      <c r="BD169">
+        <v>1</v>
+      </c>
+      <c r="BE169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -29154,6 +31591,21 @@
       <c r="AZ170">
         <v>0.4660534309270165</v>
       </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>2</v>
+      </c>
+      <c r="BD170">
+        <v>4</v>
+      </c>
+      <c r="BE170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -29322,6 +31774,21 @@
       <c r="AZ171">
         <v>0.4466077274974843</v>
       </c>
+      <c r="BA171">
+        <v>2</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>2</v>
+      </c>
+      <c r="BD171">
+        <v>4</v>
+      </c>
+      <c r="BE171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -29490,6 +31957,21 @@
       <c r="AZ172">
         <v>0.5926058437686345</v>
       </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>5</v>
+      </c>
+      <c r="BC172">
+        <v>2</v>
+      </c>
+      <c r="BD172">
+        <v>4</v>
+      </c>
+      <c r="BE172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -29658,6 +32140,21 @@
       <c r="AZ173">
         <v>0.3877154394811112</v>
       </c>
+      <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>3</v>
+      </c>
+      <c r="BD173">
+        <v>4</v>
+      </c>
+      <c r="BE173">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -29826,6 +32323,21 @@
       <c r="AZ174">
         <v>0.3273831842182195</v>
       </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
+        <v>3</v>
+      </c>
+      <c r="BD174">
+        <v>4</v>
+      </c>
+      <c r="BE174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -29994,6 +32506,21 @@
       <c r="AZ175">
         <v>0.4960456968552225</v>
       </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>3</v>
+      </c>
+      <c r="BD175">
+        <v>4</v>
+      </c>
+      <c r="BE175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -30162,6 +32689,21 @@
       <c r="AZ176">
         <v>0.3841583534052228</v>
       </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>3</v>
+      </c>
+      <c r="BD176">
+        <v>4</v>
+      </c>
+      <c r="BE176">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -30330,6 +32872,21 @@
       <c r="AZ177">
         <v>0.3926284550962536</v>
       </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>3</v>
+      </c>
+      <c r="BD177">
+        <v>4</v>
+      </c>
+      <c r="BE177">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -30498,6 +33055,21 @@
       <c r="AZ178">
         <v>0.3407916688400262</v>
       </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>3</v>
+      </c>
+      <c r="BD178">
+        <v>4</v>
+      </c>
+      <c r="BE178">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -30666,6 +33238,21 @@
       <c r="AZ179">
         <v>0.3659976829958125</v>
       </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>1</v>
+      </c>
+      <c r="BD179">
+        <v>4</v>
+      </c>
+      <c r="BE179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -30834,6 +33421,21 @@
       <c r="AZ180">
         <v>0.3409225721097868</v>
       </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>3</v>
+      </c>
+      <c r="BD180">
+        <v>4</v>
+      </c>
+      <c r="BE180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -31002,6 +33604,21 @@
       <c r="AZ181">
         <v>0.3327253873309952</v>
       </c>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>3</v>
+      </c>
+      <c r="BD181">
+        <v>4</v>
+      </c>
+      <c r="BE181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
@@ -31165,6 +33782,18 @@
       <c r="AZ182">
         <v>0.3025637646111364</v>
       </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>2</v>
+      </c>
+      <c r="BE182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
@@ -31328,6 +33957,18 @@
       <c r="AZ183">
         <v>0.3399389500519865</v>
       </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>2</v>
+      </c>
+      <c r="BE183">
+        <v>2</v>
+      </c>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
@@ -31491,6 +34132,18 @@
       <c r="AZ184">
         <v>0.4349614071075362</v>
       </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>2</v>
+      </c>
+      <c r="BE184">
+        <v>2</v>
+      </c>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
@@ -31654,6 +34307,18 @@
       <c r="AZ185">
         <v>0.5315245600963053</v>
       </c>
+      <c r="BA185">
+        <v>1</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>2</v>
+      </c>
+      <c r="BE185">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
@@ -31817,6 +34482,18 @@
       <c r="AZ186">
         <v>0.4177361920836958</v>
       </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>2</v>
+      </c>
+      <c r="BE186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
@@ -31980,6 +34657,18 @@
       <c r="AZ187">
         <v>0.4870596050801475</v>
       </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>2</v>
+      </c>
+      <c r="BE187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
@@ -32143,6 +34832,18 @@
       <c r="AZ188">
         <v>0.5955657161343193</v>
       </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>2</v>
+      </c>
+      <c r="BE188">
+        <v>2</v>
+      </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
@@ -32306,6 +35007,18 @@
       <c r="AZ189">
         <v>0.5741097106469339</v>
       </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>3</v>
+      </c>
+      <c r="BE189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
@@ -32469,6 +35182,18 @@
       <c r="AZ190">
         <v>0.470951321715191</v>
       </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>3</v>
+      </c>
+      <c r="BE190">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="B191" t="inlineStr">
@@ -32632,6 +35357,18 @@
       <c r="AZ191">
         <v>0.475755217142282</v>
       </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>2</v>
+      </c>
+      <c r="BE191">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="B192" t="inlineStr">
@@ -32795,6 +35532,18 @@
       <c r="AZ192">
         <v>0.4644785442249277</v>
       </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>3</v>
+      </c>
+      <c r="BE192">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
@@ -32958,6 +35707,18 @@
       <c r="AZ193">
         <v>0.5040966470976062</v>
       </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>2</v>
+      </c>
+      <c r="BE193">
+        <v>2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -33126,6 +35887,21 @@
       <c r="AZ194">
         <v>0.5043828852184845</v>
       </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>2</v>
+      </c>
+      <c r="BD194">
+        <v>4</v>
+      </c>
+      <c r="BE194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -33294,6 +36070,21 @@
       <c r="AZ195">
         <v>0.5235884766596107</v>
       </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>2</v>
+      </c>
+      <c r="BD195">
+        <v>4</v>
+      </c>
+      <c r="BE195">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -33462,6 +36253,21 @@
       <c r="AZ196">
         <v>0.5942820683140365</v>
       </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>2</v>
+      </c>
+      <c r="BD196">
+        <v>4</v>
+      </c>
+      <c r="BE196">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -33630,6 +36436,21 @@
       <c r="AZ197">
         <v>0.2782189851149384</v>
       </c>
+      <c r="BA197">
+        <v>1</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>2</v>
+      </c>
+      <c r="BD197">
+        <v>4</v>
+      </c>
+      <c r="BE197">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -33798,6 +36619,21 @@
       <c r="AZ198">
         <v>0.4646295097512238</v>
       </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>2</v>
+      </c>
+      <c r="BD198">
+        <v>4</v>
+      </c>
+      <c r="BE198">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -33966,6 +36802,21 @@
       <c r="AZ199">
         <v>0.5616360367459845</v>
       </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>2</v>
+      </c>
+      <c r="BD199">
+        <v>4</v>
+      </c>
+      <c r="BE199">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -34134,6 +36985,21 @@
       <c r="AZ200">
         <v>0.5398218678458589</v>
       </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>3</v>
+      </c>
+      <c r="BD200">
+        <v>4</v>
+      </c>
+      <c r="BE200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -34302,6 +37168,21 @@
       <c r="AZ201">
         <v>0.5263388963468452</v>
       </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0</v>
+      </c>
+      <c r="BC201">
+        <v>2</v>
+      </c>
+      <c r="BD201">
+        <v>4</v>
+      </c>
+      <c r="BE201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -34470,6 +37351,21 @@
       <c r="AZ202">
         <v>0.5543638888786291</v>
       </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
+      <c r="BC202">
+        <v>3</v>
+      </c>
+      <c r="BD202">
+        <v>4</v>
+      </c>
+      <c r="BE202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -34638,6 +37534,21 @@
       <c r="AZ203">
         <v>0.4719207748100142</v>
       </c>
+      <c r="BA203">
+        <v>1</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>2</v>
+      </c>
+      <c r="BD203">
+        <v>4</v>
+      </c>
+      <c r="BE203">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -34806,6 +37717,21 @@
       <c r="AZ204">
         <v>0.5680492060302125</v>
       </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>3</v>
+      </c>
+      <c r="BD204">
+        <v>4</v>
+      </c>
+      <c r="BE204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -34974,6 +37900,21 @@
       <c r="AZ205">
         <v>0.5642586559699148</v>
       </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>3</v>
+      </c>
+      <c r="BD205">
+        <v>4</v>
+      </c>
+      <c r="BE205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="B206" t="inlineStr">
@@ -35137,6 +38078,18 @@
       <c r="AZ206">
         <v>0.6106465312972094</v>
       </c>
+      <c r="BA206">
+        <v>1</v>
+      </c>
+      <c r="BB206">
+        <v>4</v>
+      </c>
+      <c r="BC206">
+        <v>2</v>
+      </c>
+      <c r="BE206">
+        <v>2</v>
+      </c>
     </row>
     <row r="207">
       <c r="B207" t="inlineStr">
@@ -35300,6 +38253,18 @@
       <c r="AZ207">
         <v>0.7327054564348854</v>
       </c>
+      <c r="BA207">
+        <v>1</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>2</v>
+      </c>
+      <c r="BE207">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="B208" t="inlineStr">
@@ -35463,6 +38428,18 @@
       <c r="AZ208">
         <v>0.6633033463983072</v>
       </c>
+      <c r="BA208">
+        <v>1</v>
+      </c>
+      <c r="BB208">
+        <v>4</v>
+      </c>
+      <c r="BC208">
+        <v>2</v>
+      </c>
+      <c r="BE208">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="B209" t="inlineStr">
@@ -35626,6 +38603,18 @@
       <c r="AZ209">
         <v>0.6048469579737961</v>
       </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>1</v>
+      </c>
+      <c r="BE209">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
       <c r="B210" t="inlineStr">
@@ -35789,6 +38778,18 @@
       <c r="AZ210">
         <v>0.5121009153694961</v>
       </c>
+      <c r="BA210">
+        <v>1</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>3</v>
+      </c>
+      <c r="BE210">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
       <c r="B211" t="inlineStr">
@@ -35952,6 +38953,18 @@
       <c r="AZ211">
         <v>0.6945838764816779</v>
       </c>
+      <c r="BA211">
+        <v>1</v>
+      </c>
+      <c r="BB211">
+        <v>4</v>
+      </c>
+      <c r="BC211">
+        <v>2</v>
+      </c>
+      <c r="BE211">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
@@ -36115,6 +39128,18 @@
       <c r="AZ212">
         <v>0.6322571874043945</v>
       </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>1</v>
+      </c>
+      <c r="BE212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
@@ -36278,6 +39303,18 @@
       <c r="AZ213">
         <v>0.6678163286283916</v>
       </c>
+      <c r="BA213">
+        <v>1</v>
+      </c>
+      <c r="BB213">
+        <v>4</v>
+      </c>
+      <c r="BC213">
+        <v>2</v>
+      </c>
+      <c r="BE213">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="B214" t="inlineStr">
@@ -36441,6 +39478,18 @@
       <c r="AZ214">
         <v>0.7232791801885035</v>
       </c>
+      <c r="BA214">
+        <v>1</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>2</v>
+      </c>
+      <c r="BE214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" t="inlineStr">
@@ -36604,6 +39653,18 @@
       <c r="AZ215">
         <v>0.5164831721023802</v>
       </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>1</v>
+      </c>
+      <c r="BE215">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="B216" t="inlineStr">
@@ -36767,6 +39828,18 @@
       <c r="AZ216">
         <v>0.5984944328105971</v>
       </c>
+      <c r="BA216">
+        <v>1</v>
+      </c>
+      <c r="BB216">
+        <v>4</v>
+      </c>
+      <c r="BC216">
+        <v>2</v>
+      </c>
+      <c r="BE216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="B217" t="inlineStr">
@@ -36930,6 +40003,18 @@
       <c r="AZ217">
         <v>0.6206759538662097</v>
       </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>2</v>
+      </c>
+      <c r="BE217">
+        <v>2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -37098,6 +40183,21 @@
       <c r="AZ218">
         <v>0.4829925329455627</v>
       </c>
+      <c r="BA218">
+        <v>1</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>1</v>
+      </c>
+      <c r="BD218">
+        <v>3</v>
+      </c>
+      <c r="BE218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -37266,6 +40366,21 @@
       <c r="AZ219">
         <v>0.5795488672945869</v>
       </c>
+      <c r="BA219">
+        <v>1</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>2</v>
+      </c>
+      <c r="BD219">
+        <v>3</v>
+      </c>
+      <c r="BE219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -37434,6 +40549,21 @@
       <c r="AZ220">
         <v>0.5653030994492696</v>
       </c>
+      <c r="BA220">
+        <v>1</v>
+      </c>
+      <c r="BB220">
+        <v>4</v>
+      </c>
+      <c r="BC220">
+        <v>2</v>
+      </c>
+      <c r="BD220">
+        <v>3</v>
+      </c>
+      <c r="BE220">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -37602,6 +40732,21 @@
       <c r="AZ221">
         <v>0.612368204776317</v>
       </c>
+      <c r="BA221">
+        <v>1</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>3</v>
+      </c>
+      <c r="BD221">
+        <v>3</v>
+      </c>
+      <c r="BE221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -37770,6 +40915,21 @@
       <c r="AZ222">
         <v>0.6323714977508678</v>
       </c>
+      <c r="BA222">
+        <v>1</v>
+      </c>
+      <c r="BB222">
+        <v>4</v>
+      </c>
+      <c r="BC222">
+        <v>3</v>
+      </c>
+      <c r="BD222">
+        <v>3</v>
+      </c>
+      <c r="BE222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -37938,6 +41098,21 @@
       <c r="AZ223">
         <v>0.523592170727563</v>
       </c>
+      <c r="BA223">
+        <v>1</v>
+      </c>
+      <c r="BB223">
+        <v>4</v>
+      </c>
+      <c r="BC223">
+        <v>2</v>
+      </c>
+      <c r="BD223">
+        <v>3</v>
+      </c>
+      <c r="BE223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -38106,6 +41281,21 @@
       <c r="AZ224">
         <v>0.6088949446377301</v>
       </c>
+      <c r="BA224">
+        <v>1</v>
+      </c>
+      <c r="BB224">
+        <v>4</v>
+      </c>
+      <c r="BC224">
+        <v>2</v>
+      </c>
+      <c r="BD224">
+        <v>3</v>
+      </c>
+      <c r="BE224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -38274,6 +41464,21 @@
       <c r="AZ225">
         <v>0.5659668126661505</v>
       </c>
+      <c r="BA225">
+        <v>1</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>3</v>
+      </c>
+      <c r="BD225">
+        <v>3</v>
+      </c>
+      <c r="BE225">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -38442,6 +41647,21 @@
       <c r="AZ226">
         <v>0</v>
       </c>
+      <c r="BA226">
+        <v>1</v>
+      </c>
+      <c r="BB226">
+        <v>4</v>
+      </c>
+      <c r="BC226">
+        <v>3</v>
+      </c>
+      <c r="BD226">
+        <v>3</v>
+      </c>
+      <c r="BE226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -38610,6 +41830,21 @@
       <c r="AZ227">
         <v>0.4805094011455851</v>
       </c>
+      <c r="BA227">
+        <v>0</v>
+      </c>
+      <c r="BB227">
+        <v>0</v>
+      </c>
+      <c r="BC227">
+        <v>1</v>
+      </c>
+      <c r="BD227">
+        <v>3</v>
+      </c>
+      <c r="BE227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -38778,6 +42013,21 @@
       <c r="AZ228">
         <v>0.5915076561901844</v>
       </c>
+      <c r="BA228">
+        <v>1</v>
+      </c>
+      <c r="BB228">
+        <v>4</v>
+      </c>
+      <c r="BC228">
+        <v>3</v>
+      </c>
+      <c r="BD228">
+        <v>3</v>
+      </c>
+      <c r="BE228">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -38946,6 +42196,21 @@
       <c r="AZ229">
         <v>0</v>
       </c>
+      <c r="BA229">
+        <v>1</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>3</v>
+      </c>
+      <c r="BD229">
+        <v>3</v>
+      </c>
+      <c r="BE229">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -39123,6 +42388,21 @@
       <c r="AZ230">
         <v>0.3385146011164245</v>
       </c>
+      <c r="BA230">
+        <v>2</v>
+      </c>
+      <c r="BB230">
+        <v>6</v>
+      </c>
+      <c r="BC230">
+        <v>2</v>
+      </c>
+      <c r="BD230">
+        <v>4</v>
+      </c>
+      <c r="BE230">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -39300,6 +42580,21 @@
       <c r="AZ231">
         <v>0.3767446812280778</v>
       </c>
+      <c r="BA231">
+        <v>1</v>
+      </c>
+      <c r="BB231">
+        <v>4</v>
+      </c>
+      <c r="BC231">
+        <v>2</v>
+      </c>
+      <c r="BD231">
+        <v>4</v>
+      </c>
+      <c r="BE231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -39477,6 +42772,21 @@
       <c r="AZ232">
         <v>0.3424608017868911</v>
       </c>
+      <c r="BA232">
+        <v>0</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
+        <v>2</v>
+      </c>
+      <c r="BD232">
+        <v>4</v>
+      </c>
+      <c r="BE232">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -39654,6 +42964,21 @@
       <c r="AZ233">
         <v>0.4471468781740496</v>
       </c>
+      <c r="BA233">
+        <v>2</v>
+      </c>
+      <c r="BB233">
+        <v>6</v>
+      </c>
+      <c r="BC233">
+        <v>2</v>
+      </c>
+      <c r="BD233">
+        <v>4</v>
+      </c>
+      <c r="BE233">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -39831,6 +43156,21 @@
       <c r="AZ234">
         <v>0.4010530173378639</v>
       </c>
+      <c r="BA234">
+        <v>2</v>
+      </c>
+      <c r="BB234">
+        <v>6</v>
+      </c>
+      <c r="BC234">
+        <v>3</v>
+      </c>
+      <c r="BD234">
+        <v>4</v>
+      </c>
+      <c r="BE234">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -40008,6 +43348,21 @@
       <c r="AZ235">
         <v>0.3608929831474801</v>
       </c>
+      <c r="BA235">
+        <v>2</v>
+      </c>
+      <c r="BB235">
+        <v>6</v>
+      </c>
+      <c r="BC235">
+        <v>2</v>
+      </c>
+      <c r="BD235">
+        <v>4</v>
+      </c>
+      <c r="BE235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -40185,6 +43540,21 @@
       <c r="AZ236">
         <v>0.3509881561445794</v>
       </c>
+      <c r="BA236">
+        <v>2</v>
+      </c>
+      <c r="BB236">
+        <v>6</v>
+      </c>
+      <c r="BC236">
+        <v>2</v>
+      </c>
+      <c r="BD236">
+        <v>4</v>
+      </c>
+      <c r="BE236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -40362,6 +43732,21 @@
       <c r="AZ237">
         <v>0.3879015676334396</v>
       </c>
+      <c r="BA237">
+        <v>2</v>
+      </c>
+      <c r="BB237">
+        <v>6</v>
+      </c>
+      <c r="BC237">
+        <v>3</v>
+      </c>
+      <c r="BD237">
+        <v>4</v>
+      </c>
+      <c r="BE237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -40539,6 +43924,21 @@
       <c r="AZ238">
         <v>0.4669320384115888</v>
       </c>
+      <c r="BA238">
+        <v>2</v>
+      </c>
+      <c r="BB238">
+        <v>6</v>
+      </c>
+      <c r="BC238">
+        <v>2</v>
+      </c>
+      <c r="BD238">
+        <v>4</v>
+      </c>
+      <c r="BE238">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -40716,6 +44116,21 @@
       <c r="AZ239">
         <v>0.4806474766056895</v>
       </c>
+      <c r="BA239">
+        <v>1</v>
+      </c>
+      <c r="BB239">
+        <v>4</v>
+      </c>
+      <c r="BC239">
+        <v>2</v>
+      </c>
+      <c r="BD239">
+        <v>4</v>
+      </c>
+      <c r="BE239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -40893,6 +44308,21 @@
       <c r="AZ240">
         <v>0.4473125845207249</v>
       </c>
+      <c r="BA240">
+        <v>1</v>
+      </c>
+      <c r="BB240">
+        <v>4</v>
+      </c>
+      <c r="BC240">
+        <v>2</v>
+      </c>
+      <c r="BD240">
+        <v>4</v>
+      </c>
+      <c r="BE240">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -41070,6 +44500,21 @@
       <c r="AZ241">
         <v>0.4080227253223134</v>
       </c>
+      <c r="BA241">
+        <v>2</v>
+      </c>
+      <c r="BB241">
+        <v>6</v>
+      </c>
+      <c r="BC241">
+        <v>2</v>
+      </c>
+      <c r="BD241">
+        <v>4</v>
+      </c>
+      <c r="BE241">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -41247,6 +44692,21 @@
       <c r="AZ242">
         <v>0.556739434220571</v>
       </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>5</v>
+      </c>
+      <c r="BC242">
+        <v>2</v>
+      </c>
+      <c r="BD242">
+        <v>4</v>
+      </c>
+      <c r="BE242">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -41424,6 +44884,21 @@
       <c r="AZ243">
         <v>0.3629693229648739</v>
       </c>
+      <c r="BA243">
+        <v>2</v>
+      </c>
+      <c r="BB243">
+        <v>5</v>
+      </c>
+      <c r="BC243">
+        <v>2</v>
+      </c>
+      <c r="BD243">
+        <v>4</v>
+      </c>
+      <c r="BE243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -41601,6 +45076,21 @@
       <c r="AZ244">
         <v>0.4750043365099592</v>
       </c>
+      <c r="BA244">
+        <v>2</v>
+      </c>
+      <c r="BB244">
+        <v>5</v>
+      </c>
+      <c r="BC244">
+        <v>2</v>
+      </c>
+      <c r="BD244">
+        <v>4</v>
+      </c>
+      <c r="BE244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -41778,6 +45268,21 @@
       <c r="AZ245">
         <v>0.5023199418831413</v>
       </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
+      <c r="BB245">
+        <v>5</v>
+      </c>
+      <c r="BC245">
+        <v>2</v>
+      </c>
+      <c r="BD245">
+        <v>4</v>
+      </c>
+      <c r="BE245">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -41955,6 +45460,21 @@
       <c r="AZ246">
         <v>0.4200819550032492</v>
       </c>
+      <c r="BA246">
+        <v>2</v>
+      </c>
+      <c r="BB246">
+        <v>5</v>
+      </c>
+      <c r="BC246">
+        <v>3</v>
+      </c>
+      <c r="BD246">
+        <v>4</v>
+      </c>
+      <c r="BE246">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -42132,6 +45652,21 @@
       <c r="AZ247">
         <v>0.3362095376286344</v>
       </c>
+      <c r="BA247">
+        <v>2</v>
+      </c>
+      <c r="BB247">
+        <v>5</v>
+      </c>
+      <c r="BC247">
+        <v>2</v>
+      </c>
+      <c r="BD247">
+        <v>4</v>
+      </c>
+      <c r="BE247">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -42309,6 +45844,21 @@
       <c r="AZ248">
         <v>0.3693573525005676</v>
       </c>
+      <c r="BA248">
+        <v>2</v>
+      </c>
+      <c r="BB248">
+        <v>5</v>
+      </c>
+      <c r="BC248">
+        <v>2</v>
+      </c>
+      <c r="BD248">
+        <v>4</v>
+      </c>
+      <c r="BE248">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -42486,6 +46036,21 @@
       <c r="AZ249">
         <v>0.4671250355551964</v>
       </c>
+      <c r="BA249">
+        <v>2</v>
+      </c>
+      <c r="BB249">
+        <v>5</v>
+      </c>
+      <c r="BC249">
+        <v>3</v>
+      </c>
+      <c r="BD249">
+        <v>4</v>
+      </c>
+      <c r="BE249">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -42663,6 +46228,21 @@
       <c r="AZ250">
         <v>0.3941548766467846</v>
       </c>
+      <c r="BA250">
+        <v>2</v>
+      </c>
+      <c r="BB250">
+        <v>5</v>
+      </c>
+      <c r="BC250">
+        <v>3</v>
+      </c>
+      <c r="BD250">
+        <v>4</v>
+      </c>
+      <c r="BE250">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -42840,6 +46420,21 @@
       <c r="AZ251">
         <v>0.4790636501104165</v>
       </c>
+      <c r="BA251">
+        <v>2</v>
+      </c>
+      <c r="BB251">
+        <v>5</v>
+      </c>
+      <c r="BC251">
+        <v>3</v>
+      </c>
+      <c r="BD251">
+        <v>4</v>
+      </c>
+      <c r="BE251">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -43017,6 +46612,21 @@
       <c r="AZ252">
         <v>0.4262077429135475</v>
       </c>
+      <c r="BA252">
+        <v>2</v>
+      </c>
+      <c r="BB252">
+        <v>5</v>
+      </c>
+      <c r="BC252">
+        <v>3</v>
+      </c>
+      <c r="BD252">
+        <v>4</v>
+      </c>
+      <c r="BE252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -43194,6 +46804,21 @@
       <c r="AZ253">
         <v>0.3908873234000071</v>
       </c>
+      <c r="BA253">
+        <v>2</v>
+      </c>
+      <c r="BB253">
+        <v>5</v>
+      </c>
+      <c r="BC253">
+        <v>2</v>
+      </c>
+      <c r="BD253">
+        <v>4</v>
+      </c>
+      <c r="BE253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="B254" t="inlineStr">
@@ -43366,6 +46991,18 @@
       <c r="AZ254">
         <v>0.4458821862569828</v>
       </c>
+      <c r="BA254">
+        <v>0</v>
+      </c>
+      <c r="BB254">
+        <v>0</v>
+      </c>
+      <c r="BC254">
+        <v>2</v>
+      </c>
+      <c r="BE254">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="B255" t="inlineStr">
@@ -43538,6 +47175,18 @@
       <c r="AZ255">
         <v>0.395982978615116</v>
       </c>
+      <c r="BA255">
+        <v>0</v>
+      </c>
+      <c r="BB255">
+        <v>0</v>
+      </c>
+      <c r="BC255">
+        <v>3</v>
+      </c>
+      <c r="BE255">
+        <v>2</v>
+      </c>
     </row>
     <row r="256">
       <c r="B256" t="inlineStr">
@@ -43710,6 +47359,18 @@
       <c r="AZ256">
         <v>0.6585245589627211</v>
       </c>
+      <c r="BA256">
+        <v>0</v>
+      </c>
+      <c r="BB256">
+        <v>0</v>
+      </c>
+      <c r="BC256">
+        <v>3</v>
+      </c>
+      <c r="BE256">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="B257" t="inlineStr">
@@ -43882,6 +47543,18 @@
       <c r="AZ257">
         <v>0.5837221930178247</v>
       </c>
+      <c r="BA257">
+        <v>0</v>
+      </c>
+      <c r="BB257">
+        <v>0</v>
+      </c>
+      <c r="BC257">
+        <v>2</v>
+      </c>
+      <c r="BE257">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="B258" t="inlineStr">
@@ -44054,6 +47727,18 @@
       <c r="AZ258">
         <v>0.3625734774017842</v>
       </c>
+      <c r="BA258">
+        <v>0</v>
+      </c>
+      <c r="BB258">
+        <v>0</v>
+      </c>
+      <c r="BC258">
+        <v>3</v>
+      </c>
+      <c r="BE258">
+        <v>2</v>
+      </c>
     </row>
     <row r="259">
       <c r="B259" t="inlineStr">
@@ -44226,6 +47911,18 @@
       <c r="AZ259">
         <v>0.4938440536851539</v>
       </c>
+      <c r="BA259">
+        <v>0</v>
+      </c>
+      <c r="BB259">
+        <v>0</v>
+      </c>
+      <c r="BC259">
+        <v>3</v>
+      </c>
+      <c r="BE259">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
@@ -44398,6 +48095,18 @@
       <c r="AZ260">
         <v>0.4887557157171215</v>
       </c>
+      <c r="BA260">
+        <v>0</v>
+      </c>
+      <c r="BB260">
+        <v>2</v>
+      </c>
+      <c r="BC260">
+        <v>2</v>
+      </c>
+      <c r="BE260">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="B261" t="inlineStr">
@@ -44570,6 +48279,18 @@
       <c r="AZ261">
         <v>0.4337119538839018</v>
       </c>
+      <c r="BA261">
+        <v>1</v>
+      </c>
+      <c r="BB261">
+        <v>4</v>
+      </c>
+      <c r="BC261">
+        <v>2</v>
+      </c>
+      <c r="BE261">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="B262" t="inlineStr">
@@ -44742,6 +48463,18 @@
       <c r="AZ262">
         <v>0.5590891281768543</v>
       </c>
+      <c r="BA262">
+        <v>0</v>
+      </c>
+      <c r="BB262">
+        <v>0</v>
+      </c>
+      <c r="BC262">
+        <v>3</v>
+      </c>
+      <c r="BE262">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="B263" t="inlineStr">
@@ -44914,6 +48647,18 @@
       <c r="AZ263">
         <v>0.4802745592542066</v>
       </c>
+      <c r="BA263">
+        <v>0</v>
+      </c>
+      <c r="BB263">
+        <v>0</v>
+      </c>
+      <c r="BC263">
+        <v>2</v>
+      </c>
+      <c r="BE263">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="B264" t="inlineStr">
@@ -45086,6 +48831,18 @@
       <c r="AZ264">
         <v>0.4238688256389047</v>
       </c>
+      <c r="BA264">
+        <v>0</v>
+      </c>
+      <c r="BB264">
+        <v>0</v>
+      </c>
+      <c r="BC264">
+        <v>2</v>
+      </c>
+      <c r="BE264">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="B265" t="inlineStr">
@@ -45258,6 +49015,18 @@
       <c r="AZ265">
         <v>0.5112934360574566</v>
       </c>
+      <c r="BA265">
+        <v>0</v>
+      </c>
+      <c r="BB265">
+        <v>0</v>
+      </c>
+      <c r="BC265">
+        <v>2</v>
+      </c>
+      <c r="BE265">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="B266" t="inlineStr">
@@ -45430,6 +49199,18 @@
       <c r="AZ266">
         <v>0.4804012809494995</v>
       </c>
+      <c r="BA266">
+        <v>1</v>
+      </c>
+      <c r="BB266">
+        <v>4</v>
+      </c>
+      <c r="BC266">
+        <v>2</v>
+      </c>
+      <c r="BE266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="B267" t="inlineStr">
@@ -45602,6 +49383,18 @@
       <c r="AZ267">
         <v>0.3622035374341396</v>
       </c>
+      <c r="BA267">
+        <v>1</v>
+      </c>
+      <c r="BB267">
+        <v>4</v>
+      </c>
+      <c r="BC267">
+        <v>2</v>
+      </c>
+      <c r="BE267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="B268" t="inlineStr">
@@ -45774,6 +49567,18 @@
       <c r="AZ268">
         <v>0.3696765608033984</v>
       </c>
+      <c r="BA268">
+        <v>1</v>
+      </c>
+      <c r="BB268">
+        <v>4</v>
+      </c>
+      <c r="BC268">
+        <v>2</v>
+      </c>
+      <c r="BE268">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="B269" t="inlineStr">
@@ -45946,6 +49751,18 @@
       <c r="AZ269">
         <v>0.4090461094135731</v>
       </c>
+      <c r="BA269">
+        <v>1</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>2</v>
+      </c>
+      <c r="BE269">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="B270" t="inlineStr">
@@ -46118,6 +49935,18 @@
       <c r="AZ270">
         <v>0.421654558634406</v>
       </c>
+      <c r="BA270">
+        <v>1</v>
+      </c>
+      <c r="BB270">
+        <v>4</v>
+      </c>
+      <c r="BC270">
+        <v>2</v>
+      </c>
+      <c r="BE270">
+        <v>3</v>
+      </c>
     </row>
     <row r="271">
       <c r="B271" t="inlineStr">
@@ -46290,6 +50119,18 @@
       <c r="AZ271">
         <v>0.375384876250338</v>
       </c>
+      <c r="BA271">
+        <v>1</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>2</v>
+      </c>
+      <c r="BE271">
+        <v>3</v>
+      </c>
     </row>
     <row r="272">
       <c r="B272" t="inlineStr">
@@ -46462,6 +50303,18 @@
       <c r="AZ272">
         <v>0.3583504448698356</v>
       </c>
+      <c r="BA272">
+        <v>1</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>3</v>
+      </c>
+      <c r="BE272">
+        <v>3</v>
+      </c>
     </row>
     <row r="273">
       <c r="B273" t="inlineStr">
@@ -46634,6 +50487,18 @@
       <c r="AZ273">
         <v>0.4378390334286204</v>
       </c>
+      <c r="BA273">
+        <v>1</v>
+      </c>
+      <c r="BB273">
+        <v>4</v>
+      </c>
+      <c r="BC273">
+        <v>3</v>
+      </c>
+      <c r="BE273">
+        <v>3</v>
+      </c>
     </row>
     <row r="274">
       <c r="B274" t="inlineStr">
@@ -46806,6 +50671,18 @@
       <c r="AZ274">
         <v>0.5129770125110511</v>
       </c>
+      <c r="BA274">
+        <v>1</v>
+      </c>
+      <c r="BB274">
+        <v>4</v>
+      </c>
+      <c r="BC274">
+        <v>3</v>
+      </c>
+      <c r="BE274">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="B275" t="inlineStr">
@@ -46978,6 +50855,18 @@
       <c r="AZ275">
         <v>0.4260426257599322</v>
       </c>
+      <c r="BA275">
+        <v>1</v>
+      </c>
+      <c r="BB275">
+        <v>4</v>
+      </c>
+      <c r="BC275">
+        <v>2</v>
+      </c>
+      <c r="BE275">
+        <v>3</v>
+      </c>
     </row>
     <row r="276">
       <c r="B276" t="inlineStr">
@@ -47150,6 +51039,18 @@
       <c r="AZ276">
         <v>0.4071149731693418</v>
       </c>
+      <c r="BA276">
+        <v>1</v>
+      </c>
+      <c r="BB276">
+        <v>4</v>
+      </c>
+      <c r="BC276">
+        <v>2</v>
+      </c>
+      <c r="BE276">
+        <v>3</v>
+      </c>
     </row>
     <row r="277">
       <c r="B277" t="inlineStr">
@@ -47322,6 +51223,18 @@
       <c r="AZ277">
         <v>0.4323340832387518</v>
       </c>
+      <c r="BA277">
+        <v>1</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>2</v>
+      </c>
+      <c r="BE277">
+        <v>3</v>
+      </c>
     </row>
     <row r="278">
       <c r="B278" t="inlineStr">
@@ -47494,6 +51407,18 @@
       <c r="AZ278">
         <v>0.3515110740366012</v>
       </c>
+      <c r="BA278">
+        <v>1</v>
+      </c>
+      <c r="BB278">
+        <v>4</v>
+      </c>
+      <c r="BC278">
+        <v>2</v>
+      </c>
+      <c r="BE278">
+        <v>3</v>
+      </c>
     </row>
     <row r="279">
       <c r="B279" t="inlineStr">
@@ -47666,6 +51591,18 @@
       <c r="AZ279">
         <v>0.364517146101417</v>
       </c>
+      <c r="BA279">
+        <v>1</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>2</v>
+      </c>
+      <c r="BE279">
+        <v>3</v>
+      </c>
     </row>
     <row r="280">
       <c r="B280" t="inlineStr">
@@ -47838,6 +51775,18 @@
       <c r="AZ280">
         <v>0.3985880243486797</v>
       </c>
+      <c r="BA280">
+        <v>1</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>2</v>
+      </c>
+      <c r="BE280">
+        <v>3</v>
+      </c>
     </row>
     <row r="281">
       <c r="B281" t="inlineStr">
@@ -48010,6 +51959,18 @@
       <c r="AZ281">
         <v>0.2889108467760659</v>
       </c>
+      <c r="BA281">
+        <v>1</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>2</v>
+      </c>
+      <c r="BE281">
+        <v>3</v>
+      </c>
     </row>
     <row r="282">
       <c r="B282" t="inlineStr">
@@ -48182,6 +52143,18 @@
       <c r="AZ282">
         <v>0.4221103425586469</v>
       </c>
+      <c r="BA282">
+        <v>1</v>
+      </c>
+      <c r="BB282">
+        <v>4</v>
+      </c>
+      <c r="BC282">
+        <v>2</v>
+      </c>
+      <c r="BE282">
+        <v>3</v>
+      </c>
     </row>
     <row r="283">
       <c r="B283" t="inlineStr">
@@ -48354,6 +52327,18 @@
       <c r="AZ283">
         <v>0.3138493033821486</v>
       </c>
+      <c r="BA283">
+        <v>1</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>2</v>
+      </c>
+      <c r="BE283">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="B284" t="inlineStr">
@@ -48526,6 +52511,18 @@
       <c r="AZ284">
         <v>0.4616478397540317</v>
       </c>
+      <c r="BA284">
+        <v>1</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>2</v>
+      </c>
+      <c r="BE284">
+        <v>3</v>
+      </c>
     </row>
     <row r="285">
       <c r="B285" t="inlineStr">
@@ -48698,6 +52695,18 @@
       <c r="AZ285">
         <v>0.4748963331823535</v>
       </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
+        <v>4</v>
+      </c>
+      <c r="BC285">
+        <v>3</v>
+      </c>
+      <c r="BE285">
+        <v>3</v>
+      </c>
     </row>
     <row r="286">
       <c r="B286" t="inlineStr">
@@ -48870,6 +52879,18 @@
       <c r="AZ286">
         <v>0.3605759765489348</v>
       </c>
+      <c r="BA286">
+        <v>1</v>
+      </c>
+      <c r="BB286">
+        <v>4</v>
+      </c>
+      <c r="BC286">
+        <v>2</v>
+      </c>
+      <c r="BE286">
+        <v>3</v>
+      </c>
     </row>
     <row r="287">
       <c r="B287" t="inlineStr">
@@ -49042,6 +53063,18 @@
       <c r="AZ287">
         <v>0.376020606290416</v>
       </c>
+      <c r="BA287">
+        <v>1</v>
+      </c>
+      <c r="BB287">
+        <v>4</v>
+      </c>
+      <c r="BC287">
+        <v>2</v>
+      </c>
+      <c r="BE287">
+        <v>3</v>
+      </c>
     </row>
     <row r="288">
       <c r="B288" t="inlineStr">
@@ -49214,6 +53247,18 @@
       <c r="AZ288">
         <v>0.450620695382165</v>
       </c>
+      <c r="BA288">
+        <v>1</v>
+      </c>
+      <c r="BB288">
+        <v>4</v>
+      </c>
+      <c r="BC288">
+        <v>2</v>
+      </c>
+      <c r="BE288">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="B289" t="inlineStr">
@@ -49386,6 +53431,18 @@
       <c r="AZ289">
         <v>0.3135986318672984</v>
       </c>
+      <c r="BA289">
+        <v>1</v>
+      </c>
+      <c r="BB289">
+        <v>4</v>
+      </c>
+      <c r="BC289">
+        <v>2</v>
+      </c>
+      <c r="BE289">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="B290" t="inlineStr">
@@ -49549,6 +53606,18 @@
       <c r="AZ290">
         <v>0.4782898698857825</v>
       </c>
+      <c r="BA290">
+        <v>1</v>
+      </c>
+      <c r="BB290">
+        <v>4</v>
+      </c>
+      <c r="BC290">
+        <v>1</v>
+      </c>
+      <c r="BE290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="B291" t="inlineStr">
@@ -49712,6 +53781,18 @@
       <c r="AZ291">
         <v>0.5379985423537342</v>
       </c>
+      <c r="BA291">
+        <v>1</v>
+      </c>
+      <c r="BB291">
+        <v>4</v>
+      </c>
+      <c r="BC291">
+        <v>2</v>
+      </c>
+      <c r="BE291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="B292" t="inlineStr">
@@ -49875,6 +53956,18 @@
       <c r="AZ292">
         <v>0.5430107120372718</v>
       </c>
+      <c r="BA292">
+        <v>1</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>2</v>
+      </c>
+      <c r="BE292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="B293" t="inlineStr">
@@ -50038,6 +54131,18 @@
       <c r="AZ293">
         <v>0.554783031017568</v>
       </c>
+      <c r="BA293">
+        <v>1</v>
+      </c>
+      <c r="BB293">
+        <v>4</v>
+      </c>
+      <c r="BC293">
+        <v>2</v>
+      </c>
+      <c r="BE293">
+        <v>3</v>
+      </c>
     </row>
     <row r="294">
       <c r="B294" t="inlineStr">
@@ -50201,6 +54306,18 @@
       <c r="AZ294">
         <v>0.6039531459608445</v>
       </c>
+      <c r="BA294">
+        <v>2</v>
+      </c>
+      <c r="BB294">
+        <v>6</v>
+      </c>
+      <c r="BC294">
+        <v>2</v>
+      </c>
+      <c r="BE294">
+        <v>3</v>
+      </c>
     </row>
     <row r="295">
       <c r="B295" t="inlineStr">
@@ -50364,6 +54481,18 @@
       <c r="AZ295">
         <v>0.4356071549593661</v>
       </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>5</v>
+      </c>
+      <c r="BC295">
+        <v>2</v>
+      </c>
+      <c r="BE295">
+        <v>3</v>
+      </c>
     </row>
     <row r="296">
       <c r="B296" t="inlineStr">
@@ -50527,6 +54656,18 @@
       <c r="AZ296">
         <v>0.5607932750427518</v>
       </c>
+      <c r="BA296">
+        <v>1</v>
+      </c>
+      <c r="BB296">
+        <v>4</v>
+      </c>
+      <c r="BC296">
+        <v>2</v>
+      </c>
+      <c r="BE296">
+        <v>3</v>
+      </c>
     </row>
     <row r="297">
       <c r="B297" t="inlineStr">
@@ -50690,6 +54831,18 @@
       <c r="AZ297">
         <v>0.6003682384480353</v>
       </c>
+      <c r="BA297">
+        <v>1</v>
+      </c>
+      <c r="BB297">
+        <v>4</v>
+      </c>
+      <c r="BC297">
+        <v>2</v>
+      </c>
+      <c r="BE297">
+        <v>3</v>
+      </c>
     </row>
     <row r="298">
       <c r="B298" t="inlineStr">
@@ -50853,6 +55006,18 @@
       <c r="AZ298">
         <v>0.5106507427842081</v>
       </c>
+      <c r="BA298">
+        <v>1</v>
+      </c>
+      <c r="BB298">
+        <v>4</v>
+      </c>
+      <c r="BC298">
+        <v>3</v>
+      </c>
+      <c r="BE298">
+        <v>3</v>
+      </c>
     </row>
     <row r="299">
       <c r="B299" t="inlineStr">
@@ -51016,6 +55181,18 @@
       <c r="AZ299">
         <v>0.4121854364135172</v>
       </c>
+      <c r="BA299">
+        <v>1</v>
+      </c>
+      <c r="BB299">
+        <v>4</v>
+      </c>
+      <c r="BC299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>3</v>
+      </c>
     </row>
     <row r="300">
       <c r="B300" t="inlineStr">
@@ -51179,6 +55356,18 @@
       <c r="AZ300">
         <v>0.4511565464842974</v>
       </c>
+      <c r="BA300">
+        <v>0</v>
+      </c>
+      <c r="BB300">
+        <v>0</v>
+      </c>
+      <c r="BC300">
+        <v>2</v>
+      </c>
+      <c r="BE300">
+        <v>3</v>
+      </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
@@ -51341,6 +55530,18 @@
       </c>
       <c r="AZ301">
         <v>0.5654468740339744</v>
+      </c>
+      <c r="BA301">
+        <v>0</v>
+      </c>
+      <c r="BB301">
+        <v>1</v>
+      </c>
+      <c r="BC301">
+        <v>3</v>
+      </c>
+      <c r="BE301">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_section.xlsx
@@ -60286,6 +60286,9 @@
       <c r="BA328">
         <v>0</v>
       </c>
+      <c r="BB328">
+        <v>0</v>
+      </c>
       <c r="BC328">
         <v>2</v>
       </c>
@@ -60467,6 +60470,9 @@
       <c r="BA329">
         <v>0</v>
       </c>
+      <c r="BB329">
+        <v>0</v>
+      </c>
       <c r="BC329">
         <v>2</v>
       </c>
@@ -60648,6 +60654,9 @@
       <c r="BA330">
         <v>0</v>
       </c>
+      <c r="BB330">
+        <v>0</v>
+      </c>
       <c r="BC330">
         <v>2</v>
       </c>
@@ -60829,6 +60838,9 @@
       <c r="BA331">
         <v>0</v>
       </c>
+      <c r="BB331">
+        <v>0</v>
+      </c>
       <c r="BC331">
         <v>2</v>
       </c>
@@ -61010,6 +61022,9 @@
       <c r="BA332">
         <v>0</v>
       </c>
+      <c r="BB332">
+        <v>0</v>
+      </c>
       <c r="BC332">
         <v>2</v>
       </c>
@@ -61375,6 +61390,9 @@
       <c r="BA334">
         <v>0</v>
       </c>
+      <c r="BB334">
+        <v>0</v>
+      </c>
       <c r="BC334">
         <v>2</v>
       </c>
@@ -61556,6 +61574,9 @@
       <c r="BA335">
         <v>0</v>
       </c>
+      <c r="BB335">
+        <v>0</v>
+      </c>
       <c r="BC335">
         <v>2</v>
       </c>
@@ -64865,6 +64886,9 @@
       <c r="BA353">
         <v>0</v>
       </c>
+      <c r="BB353">
+        <v>0</v>
+      </c>
       <c r="BC353">
         <v>2</v>
       </c>
@@ -65046,6 +65070,9 @@
       <c r="BA354">
         <v>0</v>
       </c>
+      <c r="BB354">
+        <v>0</v>
+      </c>
       <c r="BC354">
         <v>2</v>
       </c>
@@ -65227,6 +65254,9 @@
       <c r="BA355">
         <v>0</v>
       </c>
+      <c r="BB355">
+        <v>0</v>
+      </c>
       <c r="BC355">
         <v>2</v>
       </c>
@@ -65408,6 +65438,9 @@
       <c r="BA356">
         <v>0</v>
       </c>
+      <c r="BB356">
+        <v>0</v>
+      </c>
       <c r="BC356">
         <v>2</v>
       </c>
@@ -65589,6 +65622,9 @@
       <c r="BA357">
         <v>0</v>
       </c>
+      <c r="BB357">
+        <v>0</v>
+      </c>
       <c r="BC357">
         <v>2</v>
       </c>
@@ -65770,6 +65806,9 @@
       <c r="BA358">
         <v>0</v>
       </c>
+      <c r="BB358">
+        <v>0</v>
+      </c>
       <c r="BC358">
         <v>2</v>
       </c>
@@ -65951,6 +65990,9 @@
       <c r="BA359">
         <v>0</v>
       </c>
+      <c r="BB359">
+        <v>0</v>
+      </c>
       <c r="BC359">
         <v>2</v>
       </c>
@@ -66132,6 +66174,9 @@
       <c r="BA360">
         <v>0</v>
       </c>
+      <c r="BB360">
+        <v>0</v>
+      </c>
       <c r="BC360">
         <v>2</v>
       </c>
@@ -66313,6 +66358,9 @@
       <c r="BA361">
         <v>0</v>
       </c>
+      <c r="BB361">
+        <v>0</v>
+      </c>
       <c r="BC361">
         <v>2</v>
       </c>
@@ -66494,6 +66542,9 @@
       <c r="BA362">
         <v>0</v>
       </c>
+      <c r="BB362">
+        <v>0</v>
+      </c>
       <c r="BC362">
         <v>2</v>
       </c>
@@ -66675,6 +66726,9 @@
       <c r="BA363">
         <v>0</v>
       </c>
+      <c r="BB363">
+        <v>0</v>
+      </c>
       <c r="BC363">
         <v>2</v>
       </c>
@@ -66856,6 +66910,9 @@
       <c r="BA364">
         <v>0</v>
       </c>
+      <c r="BB364">
+        <v>0</v>
+      </c>
       <c r="BC364">
         <v>2</v>
       </c>
@@ -67037,6 +67094,9 @@
       <c r="BA365">
         <v>0</v>
       </c>
+      <c r="BB365">
+        <v>0</v>
+      </c>
       <c r="BC365">
         <v>2</v>
       </c>
@@ -67218,6 +67278,9 @@
       <c r="BA366">
         <v>0</v>
       </c>
+      <c r="BB366">
+        <v>0</v>
+      </c>
       <c r="BC366">
         <v>2</v>
       </c>
@@ -67399,6 +67462,9 @@
       <c r="BA367">
         <v>0</v>
       </c>
+      <c r="BB367">
+        <v>0</v>
+      </c>
       <c r="BC367">
         <v>2</v>
       </c>
@@ -67580,6 +67646,9 @@
       <c r="BA368">
         <v>0</v>
       </c>
+      <c r="BB368">
+        <v>0</v>
+      </c>
       <c r="BC368">
         <v>2</v>
       </c>
@@ -67761,6 +67830,9 @@
       <c r="BA369">
         <v>0</v>
       </c>
+      <c r="BB369">
+        <v>0</v>
+      </c>
       <c r="BC369">
         <v>2</v>
       </c>
@@ -67942,6 +68014,9 @@
       <c r="BA370">
         <v>0</v>
       </c>
+      <c r="BB370">
+        <v>0</v>
+      </c>
       <c r="BC370">
         <v>2</v>
       </c>
@@ -68307,6 +68382,9 @@
       <c r="BA372">
         <v>0</v>
       </c>
+      <c r="BB372">
+        <v>0</v>
+      </c>
       <c r="BC372">
         <v>2</v>
       </c>
@@ -68486,6 +68564,9 @@
         <v>0.52</v>
       </c>
       <c r="BA373">
+        <v>0</v>
+      </c>
+      <c r="BB373">
         <v>0</v>
       </c>
       <c r="BC373">
